--- a/statistics/HistoricalDistanceData/historical_distance/Q3303211-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q3303211-en.xlsx
@@ -31,61 +31,61 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Storm Finally Exits a Snow-Covered East Coast</t>
+  </si>
+  <si>
+    <t>Record-breaking storm closes US federal government</t>
+  </si>
+  <si>
+    <t>Shoppers catch a break</t>
+  </si>
+  <si>
     <t>VDOT Continues to Address Winter Storm</t>
   </si>
   <si>
+    <t>Crippling U.S. storm moves north</t>
+  </si>
+  <si>
     <t>Five dead as snowstorm engulfs US East Coast</t>
   </si>
   <si>
-    <t>Shoppers catch a break</t>
-  </si>
-  <si>
-    <t>Record-breaking storm closes US federal government</t>
-  </si>
-  <si>
-    <t>Crippling U.S. storm moves north</t>
-  </si>
-  <si>
-    <t>Storm Finally Exits a Snow-Covered East Coast</t>
+    <t>2009-12-20T15:24:31UTC</t>
+  </si>
+  <si>
+    <t>2009-12-21T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2009-12-21T13:43:10UTC</t>
   </si>
   <si>
     <t>2009-12-19T00:00:00UTC</t>
   </si>
   <si>
+    <t>2009-12-20T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2009-12-20T06:20:02UTC</t>
   </si>
   <si>
-    <t>2009-12-21T13:43:10UTC</t>
-  </si>
-  <si>
-    <t>2009-12-21T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2009-12-20T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2009-12-20T15:24:31UTC</t>
-  </si>
-  <si>
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2009/12/21/us/21storm.html/?hp</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20091222153852/http://news.yahoo.com/s/afp/20091221/ts_alt_afp/usweatherstorm</t>
+  </si>
+  <si>
+    <t>https://lfpress.com/news/london/2009/12/19/12214646.html</t>
+  </si>
+  <si>
     <t>http://www.nbc29.com/Global/story.asp?S=11704169</t>
   </si>
   <si>
+    <t>https://www.cbc.ca/news/world/crippling-u-s-storm-moves-north-1.787167</t>
+  </si>
+  <si>
     <t>http://news.bbc.co.uk/2/hi/americas/8422652.stm</t>
-  </si>
-  <si>
-    <t>https://lfpress.com/news/london/2009/12/19/12214646.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20091222153852/http://news.yahoo.com/s/afp/20091221/ts_alt_afp/usweatherstorm</t>
-  </si>
-  <si>
-    <t>https://www.cbc.ca/news/world/crippling-u-s-storm-moves-north-1.787167</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2009/12/21/us/21storm.html/?hp</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -538,7 +538,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
